--- a/data/Flower_and_Plant_Care_Data.xlsx
+++ b/data/Flower_and_Plant_Care_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\WHOWFlower\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Fontys ICT\Semester 7\WHOWFlower\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59883EC-D4ED-448B-AA06-CF1316982B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCCD4D3-5E51-48B8-8B7E-4ED09708B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="4980" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -798,19 +798,19 @@
     <t>calathea</t>
   </si>
   <si>
-    <t>english Ivy</t>
-  </si>
-  <si>
-    <t>fiddle Leaf Fig</t>
-  </si>
-  <si>
-    <t>monstera Deliciousa</t>
-  </si>
-  <si>
     <t>palm lily</t>
   </si>
   <si>
     <t>polycias</t>
+  </si>
+  <si>
+    <t>english ivy</t>
+  </si>
+  <si>
+    <t>fiddle leaf fig</t>
+  </si>
+  <si>
+    <t>monstera deliciousa</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="17" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>

--- a/data/Flower_and_Plant_Care_Data.xlsx
+++ b/data/Flower_and_Plant_Care_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Fontys ICT\Semester 7\WHOWFlower\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Visual Studio\Repos\WHOWFlower\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCCD4D3-5E51-48B8-8B7E-4ED09708B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6E82B6-55A2-4334-999C-2A706B9593BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4980" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -231,464 +231,78 @@
 If bulbs have become crowded and are competing, dig and divide them. Reduce competition from surrounding plants by weeding and mowing regularly.</t>
   </si>
   <si>
-    <t>Alocasia plant care can be tricky. Native to the South Pacific Islands, they’re used to growing on the floor of warm tropical forests and jungles. Fulfilling their soil, feeding, and watering needs might be challenging for some plant enthusiasts.
-Fortunately for indoor gardeners, Alocasias can grow well in pots, provided they get enough humidity and light. These plants are well known for their beautiful foliage and can brighten up any indoor space. This makes them a real treat to have in your home if you can care for them properly.
-For those interested in learning about Alocasia plant care, the in-depth guide below can provide useful tips.
-Alocasia Plant Care 101: Origins and Characteristics
-Alocasia Plant Care 101: Origins and Characteristics
-Tall stems and bold, arrow-shaped leaves often define a typical Alocasia. Because of its remarkable appearance, many know it as an Elephant Ear plant. Its shiny leaves also have rippled edges and appear much darker than other house plants.
-Alternative names for Alocasias include Kris plants and African Mask plants, though they don’t come from Africa. In fact, Alocasias grow natively in places such as the Philippines or Borneo. Alocasias only picked up these names because they resemble the hand-carved ceremonial masks found in the African region.
-While Alocasias can produce flowers from time to time, its large leaves are what make it appealing to many homeowners. Since the 1950s, Alocasias have dominated many living rooms as decorative house plants. Because of their vintage vibe, many homeowners continue to use Alocasias today to dress up unpleasant corners in a room. Others use Alocasias to serve as accents since their huge leaves can have splashes of red, bronze, purple, or white.
-Interestingly enough, Alocasias have been around for more than 28,000 years. In the past, people would propagate them around the Equator as foodstuff. Additionally, many say Alocasia is the plant described in both the Eastern and Western versions of Jack and the Beanstalk. Thus, it has become a symbol for someone grabbing opportunities despite the risks involved.
-Varieties of Alocasia
-There are around 80 known Alocasia species, and most varieties can even grow up to 10 feet tall. Many are suitable as house plants, with the exception of the Alocasia Macrorrhizos, which can grow up to 15 feet.
-Here are some of the popular varieties of Alocasia plants:
-Alocasia Amazonica
-Alocasia Amazonica
-The Alocasia Amazonica is known for its large, dark-green arrowhead leaves with wavy edges. White or light-green veins decorate the leaves, making them an eye-catching house plant. The Alocasia Amazonica can grow up to 3 feet tall, with leaves that can grow up to 2 feet.
-Alocasia Amazonica “Polly”
-The Polly variant of the Alocasia Amazonica is a small cultivar with glossy, arrow-like leaves and wavy edges. It is also known as a Kris plant as it resembles a kris or a keris dagger. Greenish-white veins mark its leaves, causing it to have the name “African Mask plant.”
-Alocasia Amazonica “Polly”
-Alocasia Calidora
-Alocasia Calidora
-Also known as the Persian Palm, the Alocasia Calidora has huge, dark-green leaves. These leaves can grow up to 6 feet long and 3 feet wide. The plant generally grows upright and can be as high as 5 feet to 9 feet.
-Alocasia Micholitziana “Frydek”
-While it resembles the Alocasia Amazonica, the Alocasia Frydek has a distinct characteristic: its leaves are velvety instead of glossy. The Alocasia Frydek also has more slender arrow-shaped leaves and whitish veins. It can grow between 2 feet and 3 feet, making it a suitable house plant.
-Alocasia Macrorrhiza “Lutea”
-Often called the Golden Lutea or Golden Lutea Elephant Ear, this variant gets its name from its golden-yellow stems. Other characteristics that define the Alocasia Lutea are lime-green leaves, yellowish veins, and thick yellow stalks.
-Alocasia Macrorrhiza “Stingray”
-Rippled oval leaves and a long tip resembling a stingray characterize the Alocasia Macrorrhiza. As a house plant, it can grow up to 3 feet.
-Alocasia Odora
-The Alocasia Odora has huge, paddle-shaped leaves that can grow up to 2 feet long and 1 foot wide. But what sets it apart from other Alocasia variants is that it emits a pleasant fragrance at night. Other names for the Alocasia Odora include Night-Scented Lily or Giant Upright Elephant Ear plant.
-Alocasia Zebrina
-Animal-like patterns and long, arching stems often characterize the Alocasia Zebrina. These patterns can come as either creamy-white or light-green markings. Other names for the Alocasia Zebrina include Tiger Alocasia, Alocasia Tiger, or Alocasia Leopard, likely due to its markings.
-Alocasia vs. Colocasia
-Those who want to grow Alocasias as house plants may have encountered Colocasia. While both are known as Elephant Ear plants and belong to the Araceae family, they are different.
-What separates one from the other is that Alocasias grow from both tubers and rhizomes. Colocasias, on the other hand, grow from tubers alone. Alocasia leaves also tend to grow straight up from the stem, while Colocasia leaves flop downwards.
-Equally hardy plants, the Colocasia is slightly harder to kill as it’s more tolerant to waterlogged soil. Compared to the Alocasia, Colocasias also require more sun exposure and are often planted outdoors.
-Guidelines for Indoor Alocasia Plant Care
-Guidelines for Indoor Alocasia Plant Care
-As with most house plants, replicating the natural conditions of their original habitat is necessary to make them thrive. This is true for Alocasias, which you need to plant in a particular way. Their soil and light conditions are rather specific, making them challenging house plants for beginners. However, once you’ve mastered Alocasia plant care, you will be rewarded with a gorgeous, eye-catching plant. In fact, when grouped with other plants, Alocasias can make the display look more exotic. With its versatility, it can be used not only as an accent but a focal point of a room.
-To successfully grow Alocasia plants of any variety, take note of the following conditions that can help them flourish:
-Soil Requirements for Alocasia Plant Care
-Soil Requirements for Alocasia Plant Care
-Well-aerated, organic, loose soil that contains a suitable amount of peat moss works best for Alocasia plant care. For soil that seems heavy, adding a builder’s sand or perlite will do the trick. An ideal potting mix is house plant soil, peat moss, and perlite, all in equal parts. This should let the soil hold just enough moisture while promoting excellent drainage. Inorganic matter such as pumice or crushed gravel can substitute for perlite to help the soil drain better.
-Keep in mind that Alocasias need moist soil but cannot survive damp, soggy conditions. This is a vital factor in their growth as many Alocasia variants are tuberous. Excess moisture can cause their roots to rot and decay quickly.
-When growing Alocasias indoors, you can choose to put them in small or large pots. Choose a pot size based on how big you want them to grow. Fill the pot with potting soil about three-quarters of the way. At the center of the pot, nestle the tuber root-side down. Generally, your tuber should be around 8 inches deep by the time the pot is full.
-Light Conditions for Alocasia Plant Care
-Light Conditions for Alocasia Plant Care
-Light conditions for Alocasia plant care are rather specific. They need very bright sunlight for around six to eight hours a day but no direct sun exposure. Similarly, Alocasias won’t survive dark or gloomy spots. Thus, finding the right balance is crucial. For instance, some variants, like the Alocasia Amazonica, may struggle with prolonged sunlight exposure. On the other hand, the Alocasia Zebrina and Macrorrhiza variants may prefer morning or late afternoon sun.
-Find a spot indoors that can provide the right lighting conditions. If sunlight is too harsh, move your Alocasia to a spot with partial shade or behind sheer curtains. This is especially important during warmer months. Alocasias with singed or bleached leaves often indicate excessive exposure to harsh sunlight. Conversely, Alocasias situated in spots with adequate lighting can grow faster and have bolder, more vibrant leaves.
-Alocasia Plant Care Water Needs
-Alocasia Plant Care Water Needs
-Just like lighting, watering Alocasia plant care requires finding a balance. As mentioned earlier, the soil needs to be moist but not soggy. Watering methods often involve soaking the soil and letting it dry, but this doesn’t work for the Alocasia. Instead, Alocasias need little water but at frequent intervals.
-To keep the soil evenly moist, allow 2 to 3 inches of the soil to dry out before watering. Soggy soil, overwatering, and wet leaves put your Alocasia at risk of acquiring fungal infections. During the colder months, cut down on watering, especially during winter, as this is the Alocasia’s period of dormancy.
-Fertilizer Requirements for Alocasia Plant Care
-From spring until late summer or roughly March through September, fertilize your Alocasia every two weeks. Basic house plant food diluted to half its recommended strength should do well for Alocasia plant care. A slow-release plant fertilizer, diluted complete liquid fertilizer, or fish/seaweed emulsion are also suitable alternatives.
-Since Alocasias become dormant during winter, avoid fertilizing them during this period. Too much plant food causes salt buildup in the soil, which can burn the leaves. Additionally, never use chemical house plant fertilizers. These also cause mineral salt buildup in the soil that can lead to root burn. Also, avoid tap water as this may contain chemicals that can affect your Alocasia’s growth. Only use natural, organic house plant fertilizer to prevent harming your Alocasia.
-Dormancy for Alocasias
-Being natives of tropical regions, Alocasias enter a period of dormancy during winter. If you see the leaves turning brown and falling off, don’t panic because it’s probably not dead. It’s merely entering its dormancy period. Stop watering and feeding your Alocasias during dormancy. If your Alocasia doesn’t go dormant, simply reduce watering and move it to a warmer spot if possible.
-Toxicity of Alocasias
-The leaves and stems of an Alocasia contain high levels of calcium oxalate crystals in its sap. This can be extremely poisonous to both humans and pets. Severe swelling in the mouth, throat, and lips are just some of the side effects of getting poisoned. Vomiting and skin irritation upon contact may also occur, so keep your Alocasia away from pets and children.
-Humidity Needs for Alocasia Plants
-High humidity is important for your Alocasia plant to thrive and survive. In fact, they require 50% to 60% humidity levels to flourish indoors. However, household air might be too dry, so use a room humidifier to regulate humidity. Placing the Alocasia’s pot on a pebble tray half-filled with water can also work wonders. Make sure the plant is sitting on the pebbles and not on the water. Avoid misting your Alocasia’s leaves as this can result in fungal infections. If you want to mist the plant, do this in the morning so its leaves can dry within the day.
-Additionally, keep the plant warm, especially during winter. Never place your Alocasia near an air conditioning unit and protect it from drafts as well.
-Temperature Requirements for Alocasia Plant Care
-Alocasia plants flourish best in warm temperatures between 60°F to 80°F (15.6°C to 26.7°C). During the summer months, an Alocasia can grow a new leaf every week. It’s also possible that new leaves will grow twice the size of previous leaves. However, temperature fluctuations can cause leaf damage, so keep this plant away from drafty windows, heating vents, or exterior doors.
-Repotting Your Alocasia Plant
-Repotting is not often a necessary part of Alocasia plant care as they are rootbound. However, when your plant has outgrown its pot or has produced a lot of offsets, repotting might be needed. Remember to exercise caution when repotting, as this can stress the plant and temporarily cause drooping leaves.
-If you’ve decided to repot your Alocasia, consider splitting the rhizome in two and planting the halves in separate containers. Since this plant doesn’t like standing in water, a terracotta pot is a good choice. Whatever pot you choose, pick one that’s 1 to 2 inches larger than the current one. While repotting, check for signs of damage or decay.
-Propagation of Alocasia Plants
-Plant division is the best way to propagate Alocasias. For best results, do this during spring. All you need to do is cut its tuberous rhizome roots into sections and plant them in another pot. Similarly, you can cut the small “baby” plants growing near its base and plant them in another pot. Don’t forget to gently remove the offsets and carefully unwind the roots if they’re tangled up. Avoid fertilizing the newly propagated plants for at least three months.
-Additionally, don’t be alarmed if growth seems slow after propagation. With the right conditions, your Alocasias should start growing normally again in a few weeks.
-Growth Speed of Alocasias
-During spring and summer, Alocasias grow at a moderate speed. They can produce an average of one new leaf per month or even one per week. You only need to start worrying about your Alocasia if it hasn’t grown any leaves in six months. When this happens, consider repotting or fertilizing.
-Alocasia Flowers
-Alocasia Plant Care Alocasia Flowers
-While flowers do occasionally appear from an Alocasia, they’re rather insignificant compared to the plant’s beautiful and massive foliage. In fact, keeping the plant healthy focuses mainly on keeping the leaves in good condition.
-Pruning as Part of Alocasia Plant Care
-Pruning as Part of Alocasia Plant Care
-Alocasia plant care doesn’t require much pruning since they grow in stems rather than branching out trunks. But while pruning isn’t essential, it may encourage new growth. Prune your Alocasia during the spring or early summer to give your plant time to recover.
-When pruning, use clean, sharp shears. Remove old or yellow leaves and leaves that are beginning to show spots. Brown or black spots can indicate that your plant has a fungal infection. Prune infected leaves immediately to prevent the infection from spreading further.
-Alocasia Plant Care Problems You Need To Watch Out For
-Common house plant pests, fungal infections, and excess water or sunlight can pose problems for your Alocasia.
-Here are some ways you can deal with them for more effective Alocasia plant care:
-Mealy Bugs, Aphids, Scale, Spider Mites
-Alocasia Plant Care Mealy Bugs, Aphids, Scale, Spider Mites
-close up Pests mealy bugs on flowers plant
-While Alocasia plants can be poisonous to humans and domestic animals, they can provide a good home for pests. Some signs that your plants are being inhabited by pests include:
-Misshapen leaves
-White residue
-The presence of the bugs themselves
-When this happens, spray your Alocasia with neem oil or ultra-fine commercial insecticidal oil. This will kill both the pests and their eggs. You can also polish the leaves with diluted neem oil every few weeks as this is a natural pest repellent. Keeping the humidity levels high will also discourage pests from living in your plant.
-Overwatering and Exposure to Direct Sunlight
-Overwatering and Exposure to Direct Sunlight
-Overwatering your Alocasia can cause rot. A sign of overwatering is brown leaves with yellow markings. Make sure your pot has excellent drainage to avoid soggy, waterlogged soil. If left unaddressed, your Alocasia can develop a variety of diseases such as:
-Crown, stem, and root rot
-Leaf spots
-Xanthomonas
-Additionally, direct exposure to sunlight can also cause problems for your Alocasia. Pale or patchy brown leaves often indicate excessive sun exposure. This can also occur when you move your plant from a dark spot to a bright spot too quickly.
-Low Humidity Levels
-Dry and crispy Alocasia leaves are a sign that humidity levels around your plant are too low. Be sure to regulate the humidity levels in the air by using a room humidifier.</t>
-  </si>
-  <si>
-    <t>Cactus Care Guide: Watering, Sunlight, Soil and More
-indoor cactus care
-Indoor cactus plants are types of succulents that are very easy to look after. Cacti belong to the plant family Cactaceae. These succulent plants have thick fleshy leaves or stems that retain plenty of moisture. Cacti need less watering than other houseplants due to their thick succulent stems. There are about 1,750 species of cacti—some look like round furry balls with spikes whereas others are tall with stems that reach upward.
-How to care for cacti: Grow cactus plants in fast-draining soil and water when the potting mix dries out. Cacti thrive in bright sunlight up to 12 hours a day. In summer, cactus plants may need watering every week but in winter, every four to six weeks. Cacti grow in temperatures between 65°F and 80°F (18°C – 27°), low humidity, and need feeding twice or three times in the growing season.
-Cacti are super hardy indoor houseplants that survive in most conditions. If you care for a cactus well, it can thrive indoors for many decades. Some species of outdoor cacti can live between 20 and 200 years. To help cacti live long, the plants need thorough watering as often as the soil becomes dry.
-Cacti—like most succulents—are slow-growing plants, especially when growing in pots indoors. Over the first two or three years, cactus plants only grow a few centimeters. When growing in optimal conditions and if they get enough water, the plants usually grow between 0.5” and 1” (1 – 3 cm) a year. Due to their slow growth rate, cacti don’t need much feeding.
-In this article, you will find a complete guide to caring for a cactus indoors. First of all, let’s find out more about indoor succulents.
-About Cactus Plants
-cactus care
-Succulent cacti can grow indoors as houseplants or outdoors as drought-resistant plants
-Cacti are flowering plants that are characterized by thick, fleshy stems. Cactus plants are usually divided into two groups—desert cacti and forest cacti.
-Desert cacti are drought-resistant plants that can survive for weeks without any water. These types of cacti generally need bright light to thrive. Most desert cacti are characterized by sharp spines and ribbed stems. The stems can be tall and long or short and globular.
-Forest cactus plants are epiphytes, which means they absorb moisture through aerial roots and leaves. Cactus that are native to rainforests can survive in low light. However, they prefer bright, indirect light to grow well.
-Compared to other houseplants, cacti and succulents have minimal moisture requirements. If you provide them with plenty of water when the potting mix becomes dry and then let the water drain out, your cactus will grow for years.
-How Often to Water a Cactus
-how often do you water a cactus
-Water your cactus when the soil is completely dry rather than watering it on a set schedule
-It’s time to water a cactus when the potting mix becomes completely dry. You can press the soil to check for any moisture. If there is no sign of moisture in the potting medium, then it’s time to water it. In hot summers, a cactus may need watering once a week. In winter, possibly once a month.
-Knowing how often to water cacti is key to their healthy growth. A large, well-established cactus in a big pot won’t need watering as often a small cactus. In fact, a little or mini cactus may need watering more frequently than larger ones. Of course, the amount of water depends on the size of pot, type of cactus, and type of potting mix.
-Remember—only water a cactus as much as it needs. This means waiting until the soil is arid and then thoroughly watering the plant until water drains out the bottom.
-When deciding when to water your cactus, err on the side of caution and don’t water it too often. Of course, cacti are famous for surviving many weeks of drought. But an indoor house cactus won’t thrive on neglect. So how can you know when you’re under-watering or over-watering your succulent plants?
-Signs that a cactus needs water include stems that appear weak, shriveled, or puckered. Lack of moisture forces the plant to use up its stores to survive. An underwatered cactus will also look pale and may even start to turn brown. Of course, these signs will be accompanied by bone-dry soil.
-Signs that you are overwatering your cactus are usually that the stems or leaves become brown, black, and mushy. An overwatered cactus also appears swollen and overly-fat because the plant absorbs too much moisture. If you remove the plant from the soil, you will notice that roots will have started to decay in the wet soil.
-Reviving an underwatered cactus plant is far easier than one that’s been watered too often. If your cactus has been surviving in drought-like conditions, saturating the soil with plenty of water should do the trick. However, if weak growth and soft leaves are due to waterlogged soil, your cactus is in trouble.
-Later in the article, you will find out how to bring back to life an overwatered cactus.
-How to Water a Cactus
-how much to water cactus
-Soak your cactus with water when the plant soil is dry. Allow the water to drain and do not let the cactus sit in a dish of water
-The ideal way to water a cactus is to drench the dry potting soil in plenty of water. It doesn’t matter what size the cactus is—large, small, or mini—the principle is the same. Wait until the soil is dry. Then pour in enough water until it drains out the pot. Wait until the soil is dry again before the next deep watering.
-Rather than watering cacti often and a little, it’s best to water occasionally and thoroughly. Deep watering less frequently ensures roots get enough moisture and nourishment.
-You can also water cactus from the bottom if you are careful. The advantage of providing moisture from the bottom is that it nourishes the roots better. Bottom watering also helps prevent soil mold and fungus gnats—problems that tend to affect the top part of the soil.
-To water cactus from the bottom, wait until the soil is completely dry. Place in a saucer and pour about 0.5” (1 cm) of water into the dish. Wait until the cactus “drinks” the liquid. Add some more water. Repeat the process until the succulent stops absorbing. Remove from the saucer and place it on a dry drip tray.
-Watering from the bottom is excellent for caring for globular spiky cacti where it’s difficult to water from the top. As you gain experience, you could learn to water a few cacti at the same time with this method.
-A word of warning: Don’t make the mistake of filling a tray of water and letting a cactus sit in it for many hours. Watering from the bottom this way puts the cactus houseplant at risk of root rot.
-How to Transplant a Cactus
-how to transplant a cactus
-Transplant your cactus when the crown reaches the pot edge or when it becomes rootbound every few years
-Cactus plants grow slowly and only need repotting every three or four years. The purpose of transplanting the plant to a new pot is to give roots space to grow. Cactus grows better in smaller containers and can become rootbound every few years.
-You can tell when a cactus needs repotting because you’ll see roots poking out the drainage holes. You may also notice that water takes a long time to drain out the pot because the dense roots create a thick, dense medium. If you have ball-shaped cactus, it needs repotting when the crown reaches the pot edge.
-Transplanting is also a great way of making a small cactus garden in a large container.
-To repot a cactus, you’ll need a container larger than its current one, protective gloves, and sterile instruments. Fill the new container with cactus potting soil up to halfway. With a clean trowel, carefully dig out the cactus from its current pot. If the plant is especially spiky, use protective gloves. Put the cactus in the new pot, so it’s a few inches below the rim. Fill the remaining space with fresh potting soil.
-An important piece of advice to remember when transferring a cactus: Don’t water it for a couple of weeks. Allow the plant to settle in and then give it a thorough watering when the potting mix had dried out.
-How to Take Care of a Cactus
-What else do you have to do to help a cactus thrive at home? Apart from watering your plant properly, you need to know about its light requirements, type of potting mix, and how to feed it.
-Cactus Light Requirements
-cactus plant care
-To care properly for your indoor cactus, make sure it gets plenty of bright light
-Most cacti need plenty of bright light—in fact, 12 hours of sunshine daily is ideal. An ideal location for any kind of desert cactus is a south-facing windowsill. Some types of cacti can grow well in lower light conditions. So, if you can’t get enough sunlight, choose an appropriate species of cacti.
-It’s important to remember that hot summer sun beating through a window all day can be very intense—even for a cactus. Apart from drying out the soil very quickly, the sun could scorch the succulent stems. If the plant starts to yellow, move it out of direct sunlight so that it gets some partial shade.
-In the hot summer sun, remember to check every other day if your plant needs watering. Heat and lots of sunlight also cause more evaporation from the succulent plant. So, to avoid signs of underwatering, water more frequently during summertime.
-Best Potting Soil for Cacti
-how to grow cactus indoors
-Good soil drainage is extremely important for your indoor cactus to grow well
-Cactus plants grow well in light, aerated soil that has good drainage. The best cactus soil mix will hold just enough moisture to nourish the plant—but not too much that it suffers. Ideally, you need a type of potting soil mix that dries out quickly after watering.
-Cacti quickly absorb the moisture they need from the soil. So, any leftover moisture will start to cause dampness problems and lead to mold, fungal disease, or rot.
-Most garden centers sell appropriate types of cactus mix. Or, you can make a suitable potting medium for succulents and cactus. You can make your own excellent cactus mix by mixing five parts potting soil, two parts pumice stones, and one-part coconut coir. This type of cactus mixture should provide the ideal environment to create suitable soil for succulents that drains well.
-Cactus Care: The Right Humidity for Cactus
-cactus with red top
-Most cacti thrive in low humidity levels
-Cactus plants love dry environments where there is low humidity. Because household air tends to be drier than outdoors, growing cactus plants indoors is super easy. Cacti need humidity levels around 20 or 30 percent to thrive. So, you should never mist cactus stems. Just water them regularly to keep moisture levels just right.
-Some types of cactus grow well in high humidity. For example, the Christmas cactus is a flowering cactus that thrives in shaded places and warm, humid environments. So, if you’ve got a bathroom with a window, a Christmas cactus could be the ideal shower plant.
-How to Propagate Cactus Plants
-mini cactus plants
-Bunny ears cactus can be easily propagated from offshoots
-Cacti and succulents are some of the easiest plants to propagate. Some cactus plants produce offshoots that you can slice off and place in a small pot to grow a mini cactus. Other types of cacti are easily propagated by stem cuttings. Grafting is another propagation method to create unique houseplants.
-How to propagate cactus from offshoots: Some cacti have new growths growing on the stems. Carefully remove the small mini cactus, place in a suitable container with the cactus mix, and it should start growing slowly. For example, bunny ears cactus are a type of cactus that is easy to propagate from offshoots.
-How to propagate cactus from cuttings: Cut a stem from an existing cactus plant. Allow the stem to dry for five days on a paper towel. You may notice that small roots start to appear. Plant the stem cuttings in a small container filled with a moist cactus mix.
-Grafted cacti—You can create a moon cactus by grafting one cactus on top of another one.
-How Often Should You Fertilize a Cactus Plant
-Cactus plants are slow growers and don’t require a lot of feeding. However, they benefit from diluted houseplant fertilizer to grow healthily. A half-strength, balanced fertilizer should help your cacti grow well and even flower under the right conditions. You should fertilize a cactus two or three times in the growing season.
-In late fall and winter, don’t fertilize cactus or succulents. The only care that cacti need in winter is occasional watering—and only when the soil is completely dry.
-Disease and Pests that Affect Cactus Plants
-baby cactus plant
-Caring properly for your succulent cactus will help prevent diseases and pests
-Like with any indoor houseplant, fungal and bacterial diseases can affect cacti. Also, pests such as scale, spider mites, and mealybugs can infest cacti plants. Usually, proper care helps prevent most problems with cactus growth. However, sometimes you can get problems.
-To prevent diseases affecting house cactus, there are three essential things to remember. You can keep your cactus alive for many years by following this advice:
-Grow cactus plants in well-draining soil
-Water only when the potting medium is completely dry
-Place in a bright sunny location
-But, what can you do if you notice pests on your cactus? Here are a few ways to identify houseplant bugs and get rid of them:
-Scale–Scale on cactus plants looks like tiny dome-shaped shells. Scrape them off to prevent any plant damage. Rubbing alcohol also kills these pests on contact.
-Mealybugs—These pests look like bits of white cotton fluff on veins or spines. Use a natural neem oil solution to get rid of these common houseplant pests.
-Fungus gnats—Tiny black flies that live in the cactus soil are usually seen hovering around the cactus. They may not do much damage, but fungus gnats are annoying creatures.
-Spider mites—The first signs of these pests are web-like structures on the cactus stems. On closer inspection, you may notice tiny brown dots, which are the spiders.
-Caring for Cactus in Winter
-Cactus plants love hot, sunny environments. But caring for them in winter isn’t difficult. Cactus enter dormancy in the winter months and hardly need any care. You should make sure that the cacti get about three to four hours of light. Watering must be kept to a minimum, and only water them when you’re sure the soil is completely dry.
-FAQs on Caring for Cactus Plants Indoors
-mini cactus care 
-Although cactus are easy houseplants to care for, you may still have some questions. Here are answers to some common questions about cactus care.
-Will my cactus flower?
-Once cactus plants have been established for about two to three years, they should start to flower. To flower indoors, cactus need plenty of sun and nutrients during the growing season. Then in winter, they will bloom in cooler temperatures if there is enough light.
-Why is my cactus growing tall and spindly?
-Lack of sunlight is usually the reason for cacti to start growing spindly. Move the potted plant to a brighter location to improve growth.</t>
-  </si>
-  <si>
-    <t>Calathea Care
-The mesmerizing patterns found on the foliage of calathea houseplants will likely make you do a double-take. These stunners are absolutely beautiful and can add bold color and texture to any area of your home. Even the undersides of the leaves can add visual interest, as they may provide a rich pop of color visible during the evening.
-It can be tricky to get the hang of caring for these tropical plants. Calathea plants are particular about the care they receive, but once you get it down, you will be rewarded with vivid colors and the gentle motion of the leaves.
-Calatheas are sometimes known as prayer plants (much like the very similar, but different maranta plants). These indoor plants have garnered this name through their unique movements, known as nyctinasty. The leaves move throughout the course of a day. It is thought this movement allows the plant to best capture the sun's rays. The leaves will lift up with the front or face of the leaves all bunched together at night, but lower during the day in order to receive light.
-Shop Calathea Collection
-Light
-The ideal spot for a prayer plant will receive medium to bright indirect light. Calathea can handle low light, but increased light can help maintain the vivid colors and patterns on the foliage. Direct sunlight can be damaging and may cause colors to fade.
-Water
-Calathea plants have high water requirements. Thoroughly water these indoor plants when the top inch of the soil is dry. Calathea houseplants do best in well-draining soil and in containers with drainage. While calathea are certainly thirsty houseplants, they still like to dry out a bit between watering.
-The type of water used can make a difference when it comes to watering calathea. Tap water may contain different minerals or compounds that can be damaging to the leaves. Brown edges along the leaves can be an indication that the water is high in salt or contains chlorine, chloramine, bromide, or fluoride. It may be best to water the plant using filtered or distilled water, or water collected from a dehumidifier if you suspect tap water is not suitable for your calathea.
-Soil
-Potting soil that is rich in nutrients and organic matter, but still has the ability to drain well is the perfect growing medium for all calathea. Most coco coir or peat-based potting soil mixes will be adequate but make sure that they do not contain water-retentive crystals as they can cause the soil to continually stay moist causing root rot. If you are feeling adventurous, try creating your own potting soil!
-Temperature
-As tropical plants, calathea like warmer temperatures. Average room temperature above 65°F is fine, but these indoor plants won't mind if it gets warmer and the temperature creeps closer to 85°F.
-Avoid placing calathea plants near exterior doors, drafty windows, and vents, particularly during the colder months. Make sure to avoid placement near air conditioning vents during the warmer months.
-Humidity
-High humidity is a must-have for calathea. The leaves may begin to curl or the edges will turn brown and dry out if they do not receive enough humidity. Calathea indoor plants do well in a kitchen, bathroom, or any area with extra moisture in the air. Using a humidifier or a pebble tray with water can help give calathea the extra dampness they crave. Learn how to increase the humidity in the air around your indoor plants!
-Fertilizer
-Fertilizing your calathea can help promote new growth and even blooms depending on the variety. A complete liquid fertilizer diluted to half-strength is a good option. When re-potting, you can also amend the soil with seaweed or fish emulsion, or worm castings. Calathea will benefit from being fertilized during the growing season. These indoor plants do not need to be fertilized during the colder months when the plant is dormant.
-Pet Friend or Foe
-All calatheas are non-toxic! Friend!
-Pro Tips
-Calatheas are moisture-loving plants, but over-watering is still a concern and can introduce a whole host of problems. Making sure the plants receive lots of bright indirect light can help regulate the dampness while helping the plant thrive.
-Don't be too worried if you notice the leaves beginning to curl or the stems of your calathea drooping. These are signs of dehydration. It's important to pay attention to these indicators, but these hardy houseplants can bounce back within a day or so after receiving water.
-Calathea can only be propagated through division. These plants naturally propagate themselves by expanding their root system and sending new shoots up through the soil. When a mature plant is re-potted, gently separate the roots to divide the main plant into several smaller plants. Each new plant can be potted in its own container. Given time and proper care, those new plants will fill in.</t>
-  </si>
-  <si>
-    <t>English Ivy Care
-To the ancient Greeks and Romans, glossy-leafed, dark green ivy was sacred to the god Dionysus (Bacchus in Rome), and the pagan druids reflected on ivy in the Christmas carol, "The Holly and the Ivy," where the plant represents female divinity. This plant continued to impact ancient cultures as its evergreen vines physically covered vast areas of Europe without much intervention.
-The fact that English ivy plants spread quickly means that they can be useful as ground cover for filling in hard-to-plant spots in your landscaping. Their aggressive nature suggests that they could be effective allies against erosion on hillsides. At home indoors or out, English ivy does well planted in containers or baskets where its trailing vines can hang down. Ivy needs protection from winter winds as well as the hot summer sun, so plant appropriately.
-WARNING
-English ivy is considered invasive in many areas, including the Pacific Northwest, California, several Southeast states, and parts of the Midwest. Before planting English ivy, consult a local extension office to confirm that it is not considered an invasive species in your area. English ivy is also widely known to be capable of causing damage to trees and brickwork.2
-closeup of an english ivy leaf
- The Spruce / Cara Cormack  
-closeup of english ivy 
-ivy growing on a wall 
-english ivy growing on a tree trunk
-Light
-English ivy plants grow well in part shade to full shade. The ability to grow in shade has made English ivy a traditional ground cover for planting under trees, where most grasses may not grow well. Since ivy is vigorous and has a dense growth habit, it's an effective ground cover if your objective is to crowd out weeds.
-Ivy grown indoors needs bright, indirect light in summer but can benefit from some direct light in winter.
-Soil
-Grow this evergreen vine in well-drained soil. Although it will grow in poor soils and soils of a wide range of pH levels, it does best in average loams. A thick layer of mulch helps keep the soil moist in dry climates.
-Indoors, ivy does best in potting mix that is loose and well-drained.
-Water
-When watering your ivy, always check the soil before adding water. Ivy prefers to be kept slightly on the dry side, so let the soil dry out some (dry to the touch on top) before you water your ivy plants again. Indoor or outdoor ivy prefers evenly moist but not soggy soil. Also, make sure that your plant has excellent drainage. Ivy should not be kept in standing water or overly wet soil.
-Temperature and Humidity
-English Ivy plants grow best in temperatures between 70 and 90 degrees Fahrenheit. Their leaves will stay dark green when grown in steady temperatures and medium to high humidity. It does not like cold winter wind or high summer heat.
-In some areas and with some species of ivy, it's possible to keep potted plants outdoors in winter, and new growth emerges from the stems in spring.
-Fertilizer
-Feed English ivy every two weeks during the spring and summer season, using a 20-20-20 fertilizer (or a 2-2-2 organic formula). Do not use fertilizer or plant food if the plant is in a stressful situation: very hot, very cold, or very dry soil, or when leaf production has stopped.
-Pruning
-Use clean and sharp cutting shears to trim ground cover plants in the spring to keep them manageable and discourage bacterial leaf spot. Prune any ivy into a bushy shape by pinching off its growing tips, also in spring. A hard pruning every few years helps revitalize the plant.
-If English ivy is already climbing one of your trees, be careful if you wish to remove it. Do not just rip a vine off, which could hurt the tree's bark. Instead, cut each vine where you find it coming out of the soil at the base of the tree, where it begins its ascent. When cut off from the earth (and thus from a water source), the part of the vine left anchored in the tree bark will eventually wither and die.
-This removal technique is the best way to get rid of the plant organically, but it does require some patience. You will need to go back year after year and cut new growth until all strength has been sapped out of the plant. It is only at this point that new shoots will stop emerging every spring.
-Propagating English Ivy
-The same trimmings or stem cuttings that you take from pruning your ivy can be used to propagate new plants taking these easy steps:
-Use healthy stems that are 4 to 5 inches long. Submerge the cut ends in water and wait for roots to develop.
-Transfer the stems to a pot or the ground. Plants grown as ground cover naturally spread when stems contact the soil and take root; you can cut rooted stems and dig them up to move them to a pot or a different garden location.
-Potting and Repotting English Ivy
-Some gardeners grow these plants in hanging baskets, letting them cascade over the sides. Indeed, considering their invasive quality, this is a very sensible way to grow the vines for their beauty without having to worry that they will spread out of control.
-Small ivy plants can be repotted once a year, while larger plants can be repotted every two years. Always repot with new potting soil to ensure adequate nutrition. Older plants that can use a boost often can be revived by simply replacing the soil in the same container.
-Common Pests &amp; Plant Diseases
-English ivy may become host to aphids, spider mites, mealybugs, and other pests, which can usually be sprayed off with water and can be controlled with neem oil or insecticidal soap.1 One homemade remedy for aphids is to spray the foliage with a mixture of dish soap and water.
-Diseases that affect ivy include bacterial leaf spot and root rot.3 Leaf spot appears as black or dark brown spotting on the plant foliage. Unfortunately, the best remedy is to remove the affected plants. Help protect any remaining plants by spraying them with a 10-to-1 mixture of water to vinegar.
-Root rot is typically caused by warm and humid weather and can be fatal to affected plants. Again, removal is the best remedy. Unaffected remaining plants can be treated with fungicide for protection.</t>
-  </si>
-  <si>
-    <t>How To Care For A Fiddle Leaf Fig Plant
-The most important thing to remember is that fiddles thrive on consistency. You’ll want to make sure your tree gets the right amount of light, a steady temperature and humidity, and how much and how often to water fiddle leaf figs. It’s important to find your ideal care routine and stick with it. 
-The Ideal Fiddle Leaf Fig Light Conditions
-Fiddles love light! These tropical plants enjoy lots of bright, indirect sunlight and can even be acclimated to thrive in full sun.
-Place your fiddle near a bright window, but not where the sun’s rays will fall directly on the leaves (unless your fiddle is used to being in direct sunlight.) An east-facing window is a great choice, and they may also be happy near a south or west-facing window. Be careful with west-facing windows though, because afternoon light tends to be very direct and harsh for plants that aren’t used to it.
-Fiddles typically enjoy 12-14 hours of bright, indirect light per day, so if you aren’t able to provide that naturally (like in the winter) you may want to supplement with a grow light.
-When To Water Your Fiddle Leaf Fig
-Too much water is one of the most common mistakes owners make with their fiddle leaf fig care. Be aware of your plant’s water requirements and make sure you aren’t drowning your plant!
-If you’re confused about whether your plant has been getting too much or too little water, there are some sure-fire ways to tell. Ask yourself the following questions about over-watering:
-Do you water more than once a week? If so, your plant is probably over-watered.
-Is the soil wet to the touch one inch below the surface? Stick your finger in and find out. If so, over-watering is likely. (This is where a moisture meter comes in handy!)
-Do your plant’s leaves have dark spots or edges? This could signify too much water.
-Are there flies or a musty smell in your plant’s soil? Your fiddle’s probably getting too much water!
-Soil Meter
-We've designed a professional grade meter for home use!
-Use our three-way meter to give you accurate readings on how much water to give them, whether they are in the right place for sunlight and soil pH values.
-BUY FIDDLE LEAF FIG SOIL METER
-Here are some ways to tell if you’ve been underwatering your plant:
-Are the newest leaves smaller than the existing leaves? They may be lacking water or nutrients for growth.
-Is your plant dropping leaves? This can be caused by low humidity or thirst.
-Is the top inch of soil very dry? Your plant may be thirsty. (Again, pull out your trusty moisture meter to know for sure!)
-Are the edges of your plant’s leaves brown? They may be dry.
-You don’t need to drench your plant to give it enough water. In fact, it’s best to let your plant’s soil dry out a bit between waterings.
-To maintain the right humidity level your fiddle leaf fig needs, you can simply place a humidifier close to it or give it a good mist every few days.
-How Often To Water Fiddle Leaf Fig Plants
-There’s no one-size-fits-all answer for how often to water fiddle leaf figs, but to keep things simple, plan on watering your plant the same amount each week. 
-For plants that measure less than 2 feet from the soil to the tallest leaves, water 1 cup each week. For plants that are greater than 2 feet tall, water with 2 cups of water each week. If your plant is between 3 and 6 feet tall, use 3 cups of water. More than 6 feet tall? Water with 4 cups of water each week or just until your container drains. Never let your plant sit in water, and make sure your container fully drains each time you water.
-How To Prune A Fiddle Leaf Fig Tree
-Pruning is important to maintaining a fiddle’s health, and it can also help you achieve that perfect tree shape you might be looking for!
-Fiddles don’t naturally grow in that beautiful lollipop shape you might picture when you think “fiddle leaf fig.” Indoor fiddles actually grow leaves all the way down the trunk, so in order to get that striking shape of the graceful trunk topped with a round canopy of leaves, you must prune the leaves lower down on the trunk.
-You can also prune to manage your fiddle’s size. Fiddle leaf fig growth rate is no joke! Fiddles can grow up to 40 feet outdoors, and indoors they may reach heights of up to 20 feet if the ceilings are high enough! They may also “reach” for the light and become lopsided, so pruning can help you maintain your fiddle’s shape and keep it balanced.
-When pruning your fiddle, use clean, sharp shears to prevent spreading infection and be sure to wear gloves, because the sap can irritate your skin. You may also want to put down a tarp or towels so the sap doesn’t damage your floor.
-Use the knife or shears to remove dead or unwanted leaves and branches. Be careful not to remove more than 10% of the leaves at once to avoid sending your tree into shock. If you want to come back and prune more, give your tree a week or two between pruning sessions to recover.
-Fiddle Leaf Fig Growth Rate
-How fast do these plants grow?
-The answer is…it depends on the conditions of the tree’s environment. Fiddles need lots of light and the right amount of water and nutrients to grow. They also need the right soil and pot size so their roots can grow large and strong enough to support the tree.
-When conditions are perfect, a fiddle can easily gain 2-3 feet per year! But if conditions are not right, you might see little to no growth, both in height and new leaves.
-What’s the Best Pot For Fiddle Leaf Fig Trees?
-Pot choice is important for proper fiddle leaf fig care!
-When choosing a pot, the first thing to consider is drainage. Fiddles don’t like sitting in water (this can lead to root rot). Choose a pot with drainage holes that’s about 2-3 inches larger than your fiddle’s root ball. Fiddles like to be fairly snug in their pots, but not cramped. This way, the roots still have room to grow, but the pot won’t hold onto more water than the plant can actually use (Spoiler alert: this also leads to root rot).
-As long as there’s sufficient drainage, you select any pot material you want! Ceramic, plastic, terracotta, whatever! If you choose terracotta, however, keep in mind that this material can wick moisture away from the soil. This can help if you tend to overwater, but it can also cause your fiddle to dry out too quickly. Just keep tabs on your fiddle’s soil to monitor the moisture level, and you’ll be fine. (But you were planning to do that anyway, right?)
-But what if you fall in love with a beautiful pot with no drainage holes? Don’t worry! 
-If you can drill drainage holes into the pot, that’s a great solution. But if that’s not possible or you just don’t want to, you can always double pot. Simple pot your fiddle in a pot with drainage and place that pot and the drainage tray inside the decorative pot or basket. When you water, simply remove the tree from the decorative pot and give it time to drain before replacing it. Simple!
-When To Repot Fiddle Leaf Fig Plants
-If your fiddle leaf fig is healthy, its root system will begin to outgrow its pot in a few years. If you see roots growing near the bottom or edges of the pot, it may be time to repot to give your plant more space to grow. If you’ve reached your maximum container size, top-dress instead of repotting by removing the top four inches of soil and replacing with new soil.
-You may also need to repot your fiddle to treat health issues such as root rot or bacterial infection.Learn more about when to repot your fiddle here: When to Repot a Fiddle Leaf Fig Tree….and when to NOT
-Repotting Fiddle Leaf Fig Tree
-So how do you repot your fiddle when it’s time?
-It’s not as hard as it sounds! Simply tip the pot on its side and carefully ease your fiddle out sideways. Do NOT pull it straight up out of the pot, or you may break the roots!
-Once your fiddle is out of the old pot, massage the root ball to loosen it if necessary. Then place a few inches of soil in the bottom of the new pot and place your fiddle upright in the center of the pot. Fill in the sides with soil, leaving a few inches at the top. Water the plant thoroughly and let it drain. Add more soil to the top if it settled.
-Then resume your usual care routine so your fiddle can recover. It’s normal for fiddles to droop for a week or so after being repotted due to root shock, so don’t panic if your plant looks a little sad for a while! Just be patient and give it time to get used to its new pot.Learn more about repotting: How to Repot a Fiddle Leaf Fig Tree
-Best Potting Soil For Fiddle Leaf Fig
-Fiddles need fast-draining soil so their roots aren’t left sitting in water for too long! We recommend a nice, light cactus soil or our premium Fiddle Leaf Fig Soil, which is specifically designed for fiddles! This potting mix has the perfect balance of drainage and water retention to maintain the right moisture content and keep your fiddle healthy.
-You can purchase Fiddle Leaf Fig Soil on Amazon.
-It is also important to measure the acidity in your fiddle leaf fig plant’s soil. As soil breaks down, it results in excess acidity. Fiddle leaf figs like natural pH soil conditions. If the soil becomes too acidic, the plant will have difficulty absorbing the nutrients it needs to grow. 
-The perfect pH for a fiddle leaf fig is between 6.5-7. Anything lower than a 6 on your soil pH meter will be too acidic. 
-Fiddle Leaf Fig Plant Food
-During the growing season (spring and summer), your plant will be putting a lot of resources toward growing new branches and leaves.
-To support a healthy plant, it’s critical to provide proper nutrition. Use a diluted liquid fertilizer each time you water (every week) in the spring and summer and every other time you water in the fall. Try a liquid houseplant fertilizer or Fiddle Leaf Fig Plant Food for the best results.
-Plant Food Bottle
-Are You Starving Your Fiddle Leaf Fig?
-Made specifically for fiddle leaf figs, our plant food will help guide your plants to a longer, more beautiful life and provide the most care possible.
-BUY FIDDLE FIG PLANT FOOD
-How To Propagate Fiddle Leaf Fig Tree
-The easiest way to propagate a fiddle is by taking a cutting and rooting it in water.
-How to Take a Fiddle Leaf Fig Cutting
-The trick to taking a good cutting is to select a fairly young branch that’s still growing, because it will have the best chance of continuing to grow after it’s cut! (It’s a good idea to do this while you’re pruning so your cuttings don’t go to waste.)
-You’ll also want to make sure that you include a few leaves in your cutting, because this ensures that your cutting contains a node where your cutting will start to grow roots. (Note: You can get a leaf to root, but it will only ever be a leaf. If you want your cutting to grow up into a full-sized tree someday, make sure you get a node!)
-Once you’ve selected the piece you want to cut, use clean, shape pruning shears or a knife to take your cutting.
-Rooting Fiddle Leaf Fig Cuttings
-After you take your cutting, place it in a container of clean water and a little Propagation Promoter to encourage rooting and ward off infection. Make sure the cut portion of the stem is submerged, but don’t let the leaves touch the water.
-Within a month or so, you should start to see little white buds or even actual roots beginning to form! Once the roots are about an inch long, your cutting is ready for planting.
-Fiddle Leaf Fig Care: Problems and Solutions
-Somewhere in your plant parent journey, you’re going to run into some problems. It’s just part of being a plant parent! Here are the most common issues we see, how to diagnose them, and how to treat them.
-Brown Spots On Fiddle Leaf Fig Leaves
-Brown spots on your plant’s leaves can have many causes including dryness, root rot, fungal or bacterial infection, insects, etc.
-In general, lighter, crispy spots all over the tree indicate dryness, and you should give your fiddle a drink!
-Dark brown or black spots on the lower leaves often indicate root rot. If this is the case, you might need to ease up on the water and make sure your tree is getting enough light, because this helps it use water more efficiently. You may also want to try our Root Supplement when you do water to help your roots heal!
-If the spots continue to spread, repot your fiddle into fresh soil and trim away any rotten roots.
-Lighter brown spots all over the tree could indicate a bacterial infection, which you can treat as you would root rot. Make sure to carefully remove the affected leaves so they don’t continue to spread the bacteria to the rest of the tree.
-How to Treat Brown Spots on your Fiddle’s Leaves
-Fiddle Leaf Fig Browning Leaves
-Browning usually occurs in spots, but if you notice entire leaves turning brown or black on one side of the tree, check for drafts near your fiddle. When they get too cold, a fiddle’s leaves can turn dark brown or black!
-Fiddle Leaf Fig Drooping Leaves
-Drooping leaves are a common—but very fixable—problem. Your plant could be slightly thirsty, or adjusting to environmental change. It could also be a case of root shock or even chemical burn!
-Check out our full guide on treating drooping leaves.
-Why Is My Fiddle Leaf Fig Not Growing?
-Fiddles can grow very rapidly, but what happens if your fiddle isn’t growing at all?
-This usually occurs for a few reasons: Your fiddle may be adjusting to a new environment (if it’s moved homes or has been repotted), your fiddle needs nutrients, more light, more water, or your fiddle is sick.</t>
-  </si>
-  <si>
-    <t>How to Care for Monstera Deliciosa
-Monstera deliciosa is relatively easy to care for, especially if you have experience caring for other aroids.
-Here’s what you need to know:
-Sunlight
-Make sure to provide your monstera with lots of bright, indirect sunlight. This will help the plant make the energy it needs to grow and use water efficiently. 
-Monstera deliciosa also won’t develop fenestrations in insufficient light conditions—so make light a priority!
-An east-facing window is a great spot for you monstera. A south- or west-facing window are good second choices, but make sure to filter the light with a sheer curtain or move your plant back far enough that it still gets bright light but no direct light during midday or afternoon.
-A north-facing window won’t provide enough light in most latitudes, so if that’s your only option, you may want to supplement with a full-spectrum grow light like these. Make sure to provide at least 8 hours per day of bright light.
-Water
-Monstera deliciosa likes evenly moist but not soggy soil.
-Water when the top few inches of potting mix feel dry to the touch. The finger test isn’t foolproof, though, so we recommend using a moisture meter to determine when your plant is ready for a drink.
-To use a moisture meter, simply insert the sensor into the soil about halfway between the pot and the base of the plant, and about halfway down into the pot so you’re more or less in the center of the root ball. When the meter reads 3-4, it’s time for a drink!
-This is the moisture meter we like, because it also measures soil pH and environmental light levels!
-You can top water by adding water to the top of the soil until it starts to drain out the bottom, or you can bottom water by placing the whole pot in a sink or tray of watering and letting it soak it up through the drainage hole. (Read more on bottom watering a monstera here.) 
-Whatever method you choose, make sure to let the pot drain in the sink for an hour or two, or empty the drainage tray immediately.
-How Often to Water Monstera Deliciosa
-There’s no hard-and-fast answer to this because so many factors can affect how quickly a monstera deliciosa will use water. 
-These factors can include light levels, temperatures, humidity, time of year, whether the monstera is actively growing, soil pH, soil aeration, etc. 
-This is why we recommend checking your plant’s soil to determine when it actually needs water rather than just watering on a schedule. However, if your plant is getting enough light and the pot and soil drain well, you can expect to water every 7-10 days. If you’re watering more often, you may need to water more deeply. If you’re watering less, you might need to use a soil that drains better and/or provide more light.
-Humidity and Temperature
-You’re caring for a rainforest plant here, so make sure to provide rainforest-like temperatures and humidity levels!
-Your Monstera deliciosa will thrive in temperatures between 65-85 degrees Fahrenheit; don’t let the temperature drop below 60 degrees. Watch out for drafts or bursts of hot air from heaters or fireplaces, because you might wind up with scorched, frozen, or dried-out leaves!
-Try to keep humidity levels above 50%, though 60% is ideal if you can manage it. This can be challenging in arid climates or spaces where you use a lot of climate control, but there are tricks to increase humidity around your plant. 
-You can set up a humidifier near your plant or place it on a humidity tray. You can buy these at garden centers or online, or make your own by filling a shallow tray with pebbles and water and sticking the whole plant and pot on top. This will create some humidity around your plant as the water evaporates!
-Grouping plants together an also help because the ambient humidity level will increase as the plants respirate. 
-Do Monstera Deliciosa Like to Be Misted?
-The one method of raising humidity that we don’t really recommend is misting, even though it’s super popular and really easy. The issue is that misting doesn’t actually raise humidity for long and just gets the leaves wet, which can interfere with photosynthesis and respiration, spread fungus and bacteria, and leave behind hard-water spots if you have highly mineralized water. 
-We find that a humidifier or pebble tray works much better!
-In this article, we’ll share everything you need to know about Monstera deliciosa plant care so you can grow a healthy plant.
-Soil Conditions
-Choosing the right potting mix is crucial for the health of your Monstera deliciosa, because you need the right balance of drainage and water retention to keep your plant healthy. Monsteras also do best in soil with a neutral pH, so keep that in mind as well. 
-If you like to make your own potting mixes, we love this aroid recipe from Kaylee Ellen on Youtube.
-But if you want something ready to go right out of the bag, we highly recommend our Premium Monstera Potting Mix. It’s specifically formulated for monsteras and other aroids, has a neutral pH, and packs a nutritional punch to give your monstera a boost! This mix also drains beautifully and stays well aerated for a long time, so you’ll rarely have to deal with compacted soil or drainage issues.
-Fertilizer 
-Your Monstera deliciosa needs the right nutrients to grow those big, beautiful leaves as well as sturdy stems and strong roots to support them. 
-Fertilize regularly during the growing season with a gentle liquid fertilizer with slightly more nitrogen and slightly less phosphorus. Monsteras do best with an N-P-K ration of 3-1-2 or 5-2-3.
-We recommend Monstera Plant Food, which has an N-P-K ratio of 5-2-3 and is gentle enough to use with every watering. That way, you won’t have to remember a fertilization schedule! Just mix a little into your watering can every time your monstera needs a drink.
-How Often to Fertilize Monstera Deliciosa
-Generally, it’s best to fertilize regularly during the spring and summer when your monstera is most likely to be growing, and to scale back to half or even quit altogether during the fall and winter when your plant might be experiencing a dormant period. 
-However, indoor plants don’t always stick to the same growth patterns that wild plants do. Thanks to indoor climate control, plants don’t really experience seasons the way they evolved to, so you might notice that your monstera grows in spurts year-round rather than steadily during the spring and summer only. If that seems to be the case, you can fertilize year-round to support this growth.
-Overfertilizing
-It is possible to overfertilize your monstera, so make sure you know the signs of overfertilization so you can reverse the issue.
-If you notice a white crust on the surface of the soil, and/or yellow and brown patches on the leaves that look like chemical burns, you might have overfertilized your plant.
-Scrape the white crust off the soil with a spoon, and then leach the soil a few times. This means putting the pot in the sink and slowly adding water to the top and letting it drain out the bottom. Do this a few times to flush excess minerals from the soil. As long as your pot and soil drain well, this will not overwater your plant.
-To prevent overfertilization, make sure to follow directions on the fertilizer label. If you bottom water your plant, try switching to top watering at least every fourth watering so you can occasionally flush out the soil from the top.
-Potting and Repotting
-Monstera deliciosa needs great drainage, so make sure to choose a pot with drainage holes that’s about 2-3 inches larger than the root ball. 
-This plant grows fairly quickly, so plan on repotting every year. Avoid fertilizing for a month after you repot to avoid burning the delicate roots while they’re recovering.
-Pruning
-You may want to prune your plant to control its size and shape, and to remove dead material.
-To do this, we recommend planning your cuts ahead of time and marking them with colored string. Then use sterilized shears to make your cuts, not taking more than 10% of the leaves in a single session. You may also want to wear gloves and use a towel to catch the sap, because it can irritate skin and even damage flooring and furniture.
-Propagating Monstera Deliciosa
-Monstera deliciosa propagates well with stem cuttings and air layering! Here’s how to use both of these methods to clone your beloved monstera.
-Stem Cuttings
-To propagate with stem cuttings, start with a healthy, growing, fairly young leaf. You’ll also need to make sure your cutting includes a node, which is a little brown bump on the stem across from the leaf. 
-Once you’ve found a node and a healthy leaf, use sterilized shears to cut about a half inch below the node.
-Place your cutting upright in a clear container of water with a little Propagation Promoter mixed in. Place the container in a bright place and switch out the water each week. Within a few months, you should have roots! When the roots are an inch long, you can plant the cutting in soil.
-Air Layering
-To air layer, you’ll need sharp shears or a knife, sphagnum moss, plastic wrap, and twist ties or string.
-Start by locating a healthy leaf you’d like to propagate and a nearby node. Then use the knife or shears to make a small cut near the node. Be careful not to cut more than a quarter to a third of the way through the stalk. Tip: Dip a cotton ball in Propagation Promoter and rub it on the wound to encourage rooting and prevent infection.
-Then soak a handful or two of sphagnum moss in water and wring it out so it’s only damp. Wrap the moss around the wound, and wrap plastic wrap loosely around the moss. Then secure the whole bundle with the string or twist tie. 
-Loosen the bundle every few days and spray the moss with water to keep it damp. Within a few months, you should see roots growing near the wound! When the roots are at least an inch long, cut that section off the plant below the node and roots and plant the whole thing in soil.
-Common Problems With Monstera Deliciosa
-Monstera deliciosa isn’t particularly susceptible to disease, but it can develop health problems occasionally. 
-Here are the signs to watch out for:
-Pests
-Household pests like thrips, spider mites, scale, and mealybugs can infest your monstera. Watch for signs like small red or brown dots, sticky clear residue, webbing, or brown bumps on your plant.
-How to Treat Pests on Monstera Deliciosa
-If you find insects on your plant, the first step is to remove as many as possible by rinsing your plant with a kitchen sprayer, picking them off manually (this works best with scale), or using a lint roller on the leaves.
-Then spray the plant with diluted neem oil. If that doesn’t solve the problem within a few days, try an insecticidal soap. 
-Crispy Leaves With Brown Edges or Tips
-If you notice the ends of your monstera leaves browning or getting crispy, your plant might need more humidity. 
-Check for air conditioning or heating vents that could be drying out your plant as well.
-It’s also a good idea to check your plant’s soil to make sure it hasn’t dried out. Leaves can dry out if your plant is severely underwatered!
-Drooping Leaves on Monstera Deliciosa
-Drooping leaves can have many causes. If you just moved or repotted your monstera, it could be in shock. Leave the plant alone for now to let it adjust, and it should perk up within a week or two!
-If nothing about your plant’s environment has changed, check the soil. Your plant may be drooping because it’s thirsty.
-Finally, make sure your temperatures aren’t too low, because your plant can droop if it’s cold.
-Yellowing of Leaves
-Yellowing often indicates a watering issue. Use your moisture meter to check the soil. If it’s wet long after you last watered, your pot and soil might not be draining well and/or your plant isn’t getting enough light to use water efficiently.
-If the soil is dry just a few days after you watered, give it a drink and water more deeply in the future.
-Yellowing can also point to a nutrient deficiency. If you haven’t repotted or fertilized in a while, it’s time to incorporate a gentle fertilizer into your routine!</t>
-  </si>
-  <si>
-    <t>PALM PLANT INDOOR CARE 
-Nothing screams “tropical indoor plant” quite like palm plants. There are lots of different types of palm houseplants, but don’t worry. Keeping these elegant plants thriving is easy with this detailed indoor palm plant care guide.
-The Ultimate Indoor Palm Plant Care Guide
-Palm plants are fun to collect, and pretty darn easy to care for. Plus there are lots of benefits of growing them indoors.
-If you want to create an indoor jungle, then you’ll definitely need to add a few of these beauties to your collection.
-So, in this indoor palm plant care guide, I’m going to show you everything you need in order to be successful.
-From watering, lighting and fertilizing, to soil, pest control and pruning, you’ll find it all right here!
-INFORMATION ABOUT PALM PLANT INDOOR CARE
-Growing palm plants and trees indoors is very popular these days, and they make excellent houseplants. There are lots of benefits of having them in your home too, as well as tons of different varieties to choose from.
-BENEFITS OF GROWING TROPICAL INDOOR PALMS
-Palms make excellent houseplants because they are very tolerant of neglect, but they will grow their best when given the proper indoor palm plant care.
-These easy care indoor plants are perfect for most homeowners because they don’t like a lot of light, and will easily adapt to growing indoors.
-Plus, palm plants help to clean the air in our homes, which is another wonderful benefit of growing tropical indoor palms.
-Palm plants can live for many years when they’re cared for properly, and some palm varieties can grow into huge palm trees in containers indoors.
-You can even move your palm plant outside (in a shady spot) during the summer to give it a boost if you want.
-DIFFERENT TYPES OF PALM HOUSEPLANTS
-Like I mentioned above, there are tons of different palm plants that make excellent houseplants.
-They don’t all look exactly the same, and some palm plant varieties don’t even look like what you would imagine. So, keep that in mind while you’re out shopping for new indoor tropical plants.
-Here are a few of the most common types of palms for indoors that you might find for sale online or at your local garden center.
-INDOOR PALM PLANT CARE GUIDE
+    <t>Life form	Herbaceous
+Family	Araliaceae
+Origin	New Caledonia, Madagascar
+Ease of cultivation	Not very easy to grow. If all the necessary conditions are not observed, it is possible to drop leaves.
+The size	Up to 1.5-2 m in height.
+Growth rate	Quite fast, up to 30-50 cm per season.
+Lifespan	Perennial
+Temperature	All the year round the temperature is about 68-71,6 ° F, in winter it is not lower than 64,4 ° F.
+Humidity	Not less than 50%, otherwise the plants discard leaves. In the summer it is better to spray at least 1 time per day with soft, settled water, put the plant in a tray with a moist gravel of at least 5 cm thickness. In winter, keep away from radiators.
+Lighting	The light should be brightly scattered and it is better to place it at the east window, but it can adapt to light shade. The variegated forms require a brighter light
+The soil	For a mixture of own preparation one should take: 1 part of clay-turf ground, 1 part coarse-grained sand or perlite, peat, humus, leaf land. Good drainage is required. Always use a pot with a hole.
+Watering	The soil must be constantly moist, but stagnant water is unacceptable. In summer, water abundantly, at least once a week. Winter watering limit, at this time the soil should slightly dry out between waterings.
+Fertilizer	During the growing season, every 1-2 times a month, liquid fertilizer.
+Reproduction	It is possible to spread in the beginning of spring or summer apical cuttings length of 15 cm, root in moist sand and peat, preliminarily cutting off the lower leaves, treated with coal and corn root. Cover the container with glass or polyethylene at a temperature of 77 -78,8 ° F. Rooted not too well. It is possible to propagate parts of the rhizome of an old plant about 2.5-3 cm in length. They should be inserted into a container with wet sand vertically, so that the top is at the level of the soil surface. These cuttings should not be covered with glass or polyethylene. Can be propagated by the separation of young plants and air layers.Reproduction by seeds should be carried out at a temperature of 66,2-77 ° F. Seeds are planted in a mini-greenhouse (a container with a soil mixture, covered with glass or film), spreading over the surface of the substrate and only slightly topping the soil. Place the container in a dark place. When seedlings grow up, put the container in the conditions of scattered light, the glass is removed. As the growth grows seedlings for individual pots.
+Bloom	Blooms in small white flowers, collected in umbrellas. However, in indoor conditions, flowering does not occur.
+Transfer	1 time 2-3 years in the spring, when the roots appear from the drainage hole. Adult plants are transplanted even less often, increasing the diameter of the pot 1,5 times during transplantation.
+Features of care	With the help of trimming, it is possible to form a stamped plant 30-40 cm high. Pot with the plant can not be rearranged – the polisias can discard the leaves. The plant can be cut in the spring or pinch to form a bushy shape. In summer it is preferable to keep the plant on the balcony or in the garden. The plant is suitable for bonsai.
+Difficulties	The leaves of the plant may fall off for different reasons. This is, first of all, dry air, then – wrong watering (either too intense or insufficient), the third reason – a draft. A plant can discard the leaves from a change in growth conditions or, if simply rearrange the plant. Sometimes a slight drop of leaves is a normal phenomenon that occurs with the age of the plant. Light spots on the leaves appear as a result of exposure to excess light. The plant grows slowly with a lack of nutrition. It is affected by a spider mite, thrips and scutellum.</t>
+  </si>
+  <si>
+    <t>CareGuide</t>
+  </si>
+  <si>
+    <t>daffodil</t>
+  </si>
+  <si>
+    <t>dahlia</t>
+  </si>
+  <si>
+    <t>daisy</t>
+  </si>
+  <si>
+    <t>dandelion</t>
+  </si>
+  <si>
+    <t>gerbera</t>
+  </si>
+  <si>
+    <t>lavender</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>tulip</t>
+  </si>
+  <si>
+    <t>alocasia</t>
+  </si>
+  <si>
+    <t>cactus</t>
+  </si>
+  <si>
+    <t>calathea</t>
+  </si>
+  <si>
+    <t>palm lily</t>
+  </si>
+  <si>
+    <t>polycias</t>
+  </si>
+  <si>
+    <t>english ivy</t>
+  </si>
+  <si>
+    <t>fiddle leaf fig</t>
+  </si>
+  <si>
+    <t>monstera deliciousa</t>
+  </si>
+  <si>
+    <t>INDOOR PALM PLANT CARE GUIDE
 Even though there are tons of different varieties of indoor palm plants, they all require the same basic conditions to grow their best.
 That’s great news, and makes indoor palm plant care so much easier!! Here are some basic tips for caring for a palm plant indoors.
 WATERING PALM PLANTS
@@ -715,102 +329,150 @@
 It’s best to stick with using an organic plant fertilizer to feed your indoor palm plants.
 The good news is that there are lots of options for organic palm tree fertilizer on the market that are specifically made for indoor house palms, which makes feeding them super easy!
 My favorite brands of indoor palm fertilizer are Jobe’s, Espoma, and Dr. Earth. Whatever type of fertilizer you decide to use, it’s important to know when to fertilize palm trees.
-Be sure to only fertilize your palm plants during their active growing period (spring and summer). Don’t fertilize indoor palm plants during the fall and winter, or the plants may suffer.
-BATTLING BUGS ON INDOOR PALM TREES
-Spider mites are the most common pest that can attack indoor palm plants. Keeping the humidity level high in the air around the plant will help to fend off spider mites, and will also benefit the plant.
-Houseplant scale and mealy bugs can also be a problem, but are much less common.
-If you find that your palm plant has bugs, begin treatment immediately. Don’t use chemical pesticides on houseplant pests though, they aren’t very effective (plus they’re harmful to us and our pets!).
-I recommend using organic neem oil, which is a natural pesticide. I also like to use a mixture of 1 tsp mild liquid soap per 1 liter of water to help control bugs.
-Insecticidal soap or horticultural oil also work great. Learn more about how to get rid of houseplant bugs here.
-PRUNING PALM PLANTS
-Indoor palm plants can be pruned to keep them looking nice, and to maintain their shape. Pruning off any old yellow, brown or spotted leaves on a regular basis is a good habit to get into, and will keep you palm plant looking its best.
-It’s common for the lower leaves of palms to turn yellow or brown with age. If your plant is really full, you can prune off the old, small leaves around the bottom by simply cutting the fronds back to the stem of the plant.
-You don’t need to remove the whole frond if it just has brown tips, but otherwise looks healthy. Brown tips of palm leaves can be pruned off any time to keep the plant looking nice.
-Since palm leaves are so thin, use a sharp pair of pruners like bonsai pruning shears or micro-tip pruners for trimming palm plants.
-If there are any super long stems, and you don’t like how they look, you can remove those too, but it’s not necessary. Be careful not to remove too many healthy fronds though, or it could harm the plant.
-COMMON INDOOR PALM PLANT CARE PROBLEMS
-One of the most common problems that indoor palm plants have is brown leaves and tips. Why do the tips of palm leaves turn brown? Here are a few common causes…
-Lack of water
-Overuse of chemical fertilizers
-Spider mites
-Keep in mind that if you just brought the plant home from the garden center, it will take some time for the chemical fertilizers to wash out of the soil.
-But it doesn’t hurt to check to make sure you’re watering it enough, and that it’s not infested with spider mites.
-If you’ve had the plant for a while and don’t use chemical fertilizer, then take a close look to see if the plant has spider mites. If the plant is clean, then check the soil and make sure it’s not too dry.
-To keep your indoor palm plants looking nice, simply trim off the brown tips.
-WHY IS MY INDOOR PALM DYING?
-There are several things that can cause indoor palm plants to die. The most common one is overwatering, but it could also be a lack of humidity, or inadequate lighting.
-The soil should dry slightly between waterings, and never be completely bone dry or soggy. Find a place where they can get indirect sunlight, and increase the humidity level around the plant if it has brown tips.</t>
-  </si>
-  <si>
-    <t>Life form	Herbaceous
-Family	Araliaceae
-Origin	New Caledonia, Madagascar
-Ease of cultivation	Not very easy to grow. If all the necessary conditions are not observed, it is possible to drop leaves.
-The size	Up to 1.5-2 m in height.
-Growth rate	Quite fast, up to 30-50 cm per season.
-Lifespan	Perennial
-Temperature	All the year round the temperature is about 68-71,6 ° F, in winter it is not lower than 64,4 ° F.
-Humidity	Not less than 50%, otherwise the plants discard leaves. In the summer it is better to spray at least 1 time per day with soft, settled water, put the plant in a tray with a moist gravel of at least 5 cm thickness. In winter, keep away from radiators.
-Lighting	The light should be brightly scattered and it is better to place it at the east window, but it can adapt to light shade. The variegated forms require a brighter light
-The soil	For a mixture of own preparation one should take: 1 part of clay-turf ground, 1 part coarse-grained sand or perlite, peat, humus, leaf land. Good drainage is required. Always use a pot with a hole.
-Watering	The soil must be constantly moist, but stagnant water is unacceptable. In summer, water abundantly, at least once a week. Winter watering limit, at this time the soil should slightly dry out between waterings.
-Fertilizer	During the growing season, every 1-2 times a month, liquid fertilizer.
-Reproduction	It is possible to spread in the beginning of spring or summer apical cuttings length of 15 cm, root in moist sand and peat, preliminarily cutting off the lower leaves, treated with coal and corn root. Cover the container with glass or polyethylene at a temperature of 77 -78,8 ° F. Rooted not too well. It is possible to propagate parts of the rhizome of an old plant about 2.5-3 cm in length. They should be inserted into a container with wet sand vertically, so that the top is at the level of the soil surface. These cuttings should not be covered with glass or polyethylene. Can be propagated by the separation of young plants and air layers.Reproduction by seeds should be carried out at a temperature of 66,2-77 ° F. Seeds are planted in a mini-greenhouse (a container with a soil mixture, covered with glass or film), spreading over the surface of the substrate and only slightly topping the soil. Place the container in a dark place. When seedlings grow up, put the container in the conditions of scattered light, the glass is removed. As the growth grows seedlings for individual pots.
-Bloom	Blooms in small white flowers, collected in umbrellas. However, in indoor conditions, flowering does not occur.
-Transfer	1 time 2-3 years in the spring, when the roots appear from the drainage hole. Adult plants are transplanted even less often, increasing the diameter of the pot 1,5 times during transplantation.
-Features of care	With the help of trimming, it is possible to form a stamped plant 30-40 cm high. Pot with the plant can not be rearranged – the polisias can discard the leaves. The plant can be cut in the spring or pinch to form a bushy shape. In summer it is preferable to keep the plant on the balcony or in the garden. The plant is suitable for bonsai.
-Difficulties	The leaves of the plant may fall off for different reasons. This is, first of all, dry air, then – wrong watering (either too intense or insufficient), the third reason – a draft. A plant can discard the leaves from a change in growth conditions or, if simply rearrange the plant. Sometimes a slight drop of leaves is a normal phenomenon that occurs with the age of the plant. Light spots on the leaves appear as a result of exposure to excess light. The plant grows slowly with a lack of nutrition. It is affected by a spider mite, thrips and scutellum.</t>
-  </si>
-  <si>
-    <t>CareGuide</t>
-  </si>
-  <si>
-    <t>daffodil</t>
-  </si>
-  <si>
-    <t>dahlia</t>
-  </si>
-  <si>
-    <t>daisy</t>
-  </si>
-  <si>
-    <t>dandelion</t>
-  </si>
-  <si>
-    <t>gerbera</t>
-  </si>
-  <si>
-    <t>lavender</t>
-  </si>
-  <si>
-    <t>rose</t>
-  </si>
-  <si>
-    <t>tulip</t>
-  </si>
-  <si>
-    <t>alocasia</t>
-  </si>
-  <si>
-    <t>cactus</t>
-  </si>
-  <si>
-    <t>calathea</t>
-  </si>
-  <si>
-    <t>palm lily</t>
-  </si>
-  <si>
-    <t>polycias</t>
-  </si>
-  <si>
-    <t>english ivy</t>
-  </si>
-  <si>
-    <t>fiddle leaf fig</t>
-  </si>
-  <si>
-    <t>monstera deliciousa</t>
+Be sure to only fertilize your palm plants during their active growing period (spring and summer). Don’t fertilize indoor palm plants during the fall and winter, or the plants may suffer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to Care for Monstera Deliciosa
+Sunlight
+Make sure to provide your monstera with lots of bright, indirect sunlight. This will help the plant make the energy it needs to grow and use water efficiently. 
+Monstera deliciosa also won’t develop fenestrations in insufficient light conditions—so make light a priority!
+Water
+Monstera deliciosa likes evenly moist but not soggy soil.
+Water when the top few inches of potting mix feel dry to the touch. The finger test isn’t foolproof, though, so we recommend using a moisture meter to determine when your plant is ready for a drink.
+To use a moisture meter, simply insert the sensor into the soil about halfway between the pot and the base of the plant, and about halfway down into the pot so you’re more or less in the center of the root ball. When the meter reads 3-4, it’s time for a drink!
+How Often to Water Monstera Deliciosa
+There’s no hard-and-fast answer to this because so many factors can affect how quickly a monstera deliciosa will use water. 
+These factors can include light levels, temperatures, humidity, time of year, whether the monstera is actively growing, soil pH, soil aeration, etc. 
+Humidity and Temperature
+You’re caring for a rainforest plant here, so make sure to provide rainforest-like temperatures and humidity levels!
+Your Monstera deliciosa will thrive in temperatures between 65-85 degrees Fahrenheit; don’t let the temperature drop below 60 degrees. Watch out for drafts or bursts of hot air from heaters or fireplaces, because you might wind up with scorched, frozen, or dried-out leaves!
+Try to keep humidity levels above 50%, though 60% is ideal if you can manage it. This can be challenging in arid climates or spaces where you use a lot of climate control, but there are tricks to increase humidity around your plant. 
+Soil Conditions
+Choosing the right potting mix is crucial for the health of your Monstera deliciosa, because you need the right balance of drainage and water retention to keep your plant healthy. Monsteras also do best in soil with a neutral pH, so keep that in mind as well. 
+Fertilizer 
+Your Monstera deliciosa needs the right nutrients to grow those big, beautiful leaves as well as sturdy stems and strong roots to support them. 
+Fertilize regularly during the growing season with a gentle liquid fertilizer with slightly more nitrogen and slightly less phosphorus. Monsteras do best with an N-P-K ration of 3-1-2 or 5-2-3.
+Pruning
+You may want to prune your plant to control its size and shape, and to remove dead material.
+To do this, we recommend planning your cuts ahead of time and marking them with colored string. Then use sterilized shears to make your cuts, not taking more than 10% of the leaves in a single session. You may also want to wear gloves and use a towel to catch the sap, because it can irritate skin and even damage flooring and furniture.
+Common Problems With Monstera Deliciosa
+Monstera deliciosa isn’t particularly susceptible to disease, but it can develop health problems occasionally. 
+Here are the signs to watch out for:
+Pests
+Household pests like thrips, spider mites, scale, and mealybugs can infest your monstera. Watch for signs like small red or brown dots, sticky clear residue, webbing, or brown bumps on your plant.
+How to Treat Pests on Monstera Deliciosa
+If you find insects on your plant, the first step is to remove as many as possible by rinsing your plant with a kitchen sprayer, picking them off manually (this works best with scale), or using a lint roller on the leaves.
+Then spray the plant with diluted neem oil. If that doesn’t solve the problem within a few days, try an insecticidal soap. </t>
+  </si>
+  <si>
+    <t>How To Care For A Fiddle Leaf Fig Plant
+The most important thing to remember is that fiddles thrive on consistency. You’ll want to make sure your tree gets the right amount of light, a steady temperature and humidity, and how much and how often to water fiddle leaf figs. It’s important to find your ideal care routine and stick with it. 
+The Ideal Fiddle Leaf Fig Light Conditions
+Fiddles love light! These tropical plants enjoy lots of bright, indirect sunlight and can even be acclimated to thrive in full sun.
+Place your fiddle near a bright window, but not where the sun’s rays will fall directly on the leaves (unless your fiddle is used to being in direct sunlight.) An east-facing window is a great choice, and they may also be happy near a south or west-facing window. Be careful with west-facing windows though, because afternoon light tends to be very direct and harsh for plants that aren’t used to it.
+Fiddles typically enjoy 12-14 hours of bright, indirect light per day, so if you aren’t able to provide that naturally (like in the winter) you may want to supplement with a grow light.
+When To Water Your Fiddle Leaf Fig
+Too much water is one of the most common mistakes owners make with their fiddle leaf fig care. Be aware of your plant’s water requirements and make sure you aren’t drowning your plant!
+If you’re confused about whether your plant has been getting too much or too little water, there are some sure-fire ways to tell. Ask yourself the following questions about over-watering:
+How Often To Water Fiddle Leaf Fig Plants
+There’s no one-size-fits-all answer for how often to water fiddle leaf figs, but to keep things simple, plan on watering your plant the same amount each week. 
+For plants that measure less than 2 feet from the soil to the tallest leaves, water 1 cup each week. For plants that are greater than 2 feet tall, water with 2 cups of water each week. If your plant is between 3 and 6 feet tall, use 3 cups of water. More than 6 feet tall? Water with 4 cups of water each week or just until your container drains. Never let your plant sit in water, and make sure your container fully drains each time you water.
+When To Repot Fiddle Leaf Fig Plants
+If your fiddle leaf fig is healthy, its root system will begin to outgrow its pot in a few years. If you see roots growing near the bottom or edges of the pot, it may be time to repot to give your plant more space to grow. If you’ve reached your maximum container size, top-dress instead of repotting by removing the top four inches of soil and replacing with new soil.
+Best Potting Soil For Fiddle Leaf Fig
+Fiddles need fast-draining soil so their roots aren’t left sitting in water for too long! We recommend a nice, light cactus soil or our premium Fiddle Leaf Fig Soil, which is specifically designed for fiddles! This potting mix has the perfect balance of drainage and water retention to maintain the right moisture content and keep your fiddle healthy.
+The perfect pH for a fiddle leaf fig is between 6.5-7. Anything lower than a 6 on your soil pH meter will be too acidic. 
+Fiddle Leaf Fig Plant Food
+During the growing season (spring and summer), your plant will be putting a lot of resources toward growing new branches and leaves.
+To support a healthy plant, it’s critical to provide proper nutrition. Use a diluted liquid fertilizer each time you water (every week) in the spring and summer and every other time you water in the fall. Try a liquid houseplant fertilizer or Fiddle Leaf Fig Plant Food for the best results.
+Rooting Fiddle Leaf Fig Cuttings
+After you take your cutting, place it in a container of clean water and a little Propagation Promoter to encourage rooting and ward off infection. Make sure the cut portion of the stem is submerged, but don’t let the leaves touch the water.
+Within a month or so, you should start to see little white buds or even actual roots beginning to form! Once the roots are about an inch long, your cutting is ready for planting.</t>
+  </si>
+  <si>
+    <t>English Ivy Care
+To the ancient Greeks and Romans, glossy-leafed, dark green ivy was sacred to the god Dionysus (Bacchus in Rome), and the pagan druids reflected on ivy in the Christmas carol, "The Holly and the Ivy," where the plant represents female divinity. This plant continued to impact ancient cultures as its evergreen vines physically covered vast areas of Europe without much intervention.
+The fact that English ivy plants spread quickly means that they can be useful as ground cover for filling in hard-to-plant spots in your landscaping. Their aggressive nature suggests that they could be effective allies against erosion on hillsides. At home indoors or out, English ivy does well planted in containers or baskets where its trailing vines can hang down. Ivy needs protection from winter winds as well as the hot summer sun, so plant appropriately.
+Light
+English ivy plants grow well in part shade to full shade. The ability to grow in shade has made English ivy a traditional ground cover for planting under trees, where most grasses may not grow well. Since ivy is vigorous and has a dense growth habit, it's an effective ground cover if your objective is to crowd out weeds.
+Ivy grown indoors needs bright, indirect light in summer but can benefit from some direct light in winter.
+Soil
+Grow this evergreen vine in well-drained soil. Although it will grow in poor soils and soils of a wide range of pH levels, it does best in average loams. A thick layer of mulch helps keep the soil moist in dry climates.
+Indoors, ivy does best in potting mix that is loose and well-drained.
+Water
+When watering your ivy, always check the soil before adding water. Ivy prefers to be kept slightly on the dry side, so let the soil dry out some (dry to the touch on top) before you water your ivy plants again. Indoor or outdoor ivy prefers evenly moist but not soggy soil. Also, make sure that your plant has excellent drainage. Ivy should not be kept in standing water or overly wet soil.
+Temperature and Humidity
+English Ivy plants grow best in temperatures between 70 and 90 degrees Fahrenheit. Their leaves will stay dark green when grown in steady temperatures and medium to high humidity. It does not like cold winter wind or high summer heat.
+In some areas and with some species of ivy, it's possible to keep potted plants outdoors in winter, and new growth emerges from the stems in spring.
+Fertilizer
+Feed English ivy every two weeks during the spring and summer season, using a 20-20-20 fertilizer (or a 2-2-2 organic formula). Do not use fertilizer or plant food if the plant is in a stressful situation: very hot, very cold, or very dry soil, or when leaf production has stopped.
+Pruning
+Use clean and sharp cutting shears to trim ground cover plants in the spring to keep them manageable and discourage bacterial leaf spot. Prune any ivy into a bushy shape by pinching off its growing tips, also in spring. A hard pruning every few years helps revitalize the plant.
+If English ivy is already climbing one of your trees, be careful if you wish to remove it. Do not just rip a vine off, which could hurt the tree's bark. Instead, cut each vine where you find it coming out of the soil at the base of the tree, where it begins its ascent. When cut off from the earth (and thus from a water source), the part of the vine left anchored in the tree bark will eventually wither and die.
+This removal technique is the best way to get rid of the plant organically, but it does require some patience. You will need to go back year after year and cut new growth until all strength has been sapped out of the plant. It is only at this point that new shoots will stop emerging every spring.</t>
+  </si>
+  <si>
+    <t>Calathea Care
+The mesmerizing patterns found on the foliage of calathea houseplants will likely make you do a double-take. These stunners are absolutely beautiful and can add bold color and texture to any area of your home. Even the undersides of the leaves can add visual interest, as they may provide a rich pop of color visible during the evening.
+It can be tricky to get the hang of caring for these tropical plants. Calathea plants are particular about the care they receive, but once you get it down, you will be rewarded with vivid colors and the gentle motion of the leaves.
+Calatheas are sometimes known as prayer plants (much like the very similar, but different maranta plants). These indoor plants have garnered this name through their unique movements, known as nyctinasty. The leaves move throughout the course of a day. It is thought this movement allows the plant to best capture the sun's rays. The leaves will lift up with the front or face of the leaves all bunched together at night, but lower during the day in order to receive light.
+Shop Calathea Collection
+Light
+The ideal spot for a prayer plant will receive medium to bright indirect light. Calathea can handle low light, but increased light can help maintain the vivid colors and patterns on the foliage. Direct sunlight can be damaging and may cause colors to fade.
+Water
+Calathea plants have high water requirements. Thoroughly water these indoor plants when the top inch of the soil is dry. Calathea houseplants do best in well-draining soil and in containers with drainage. While calathea are certainly thirsty houseplants, they still like to dry out a bit between watering.
+The type of water used can make a difference when it comes to watering calathea. Tap water may contain different minerals or compounds that can be damaging to the leaves. Brown edges along the leaves can be an indication that the water is high in salt or contains chlorine, chloramine, bromide, or fluoride. It may be best to water the plant using filtered or distilled water, or water collected from a dehumidifier if you suspect tap water is not suitable for your calathea.
+Soil
+Potting soil that is rich in nutrients and organic matter, but still has the ability to drain well is the perfect growing medium for all calathea. Most coco coir or peat-based potting soil mixes will be adequate but make sure that they do not contain water-retentive crystals as they can cause the soil to continually stay moist causing root rot. If you are feeling adventurous, try creating your own potting soil!
+Temperature
+As tropical plants, calathea like warmer temperatures. Average room temperature above 65°F is fine, but these indoor plants won't mind if it gets warmer and the temperature creeps closer to 85°F.
+Avoid placing calathea plants near exterior doors, drafty windows, and vents, particularly during the colder months. Make sure to avoid placement near air conditioning vents during the warmer months.
+Humidity
+High humidity is a must-have for calathea. The leaves may begin to curl or the edges will turn brown and dry out if they do not receive enough humidity. Calathea indoor plants do well in a kitchen, bathroom, or any area with extra moisture in the air. Using a humidifier or a pebble tray with water can help give calathea the extra dampness they crave. Learn how to increase the humidity in the air around your indoor plants!
+Fertilizer
+Fertilizing your calathea can help promote new growth and even blooms depending on the variety. A complete liquid fertilizer diluted to half-strength is a good option. When re-potting, you can also amend the soil with seaweed or fish emulsion, or worm castings. Calathea will benefit from being fertilized during the growing season. These indoor plants do not need to be fertilized during the colder months when the plant is dormant.</t>
+  </si>
+  <si>
+    <t>Cactus Care Guide: Watering, Sunlight, Soil and More
+indoor cactus care
+Indoor cactus plants are types of succulents that are very easy to look after. Cacti belong to the plant family Cactaceae. These succulent plants have thick fleshy leaves or stems that retain plenty of moisture. Cacti need less watering than other houseplants due to their thick succulent stems. There are about 1,750 species of cacti—some look like round furry balls with spikes whereas others are tall with stems that reach upward.
+How to care for cacti: Grow cactus plants in fast-draining soil and water when the potting mix dries out. Cacti thrive in bright sunlight up to 12 hours a day. In summer, cactus plants may need watering every week but in winter, every four to six weeks. Cacti grow in temperatures between 65°F and 80°F (18°C – 27°), low humidity, and need feeding twice or three times in the growing season.
+Cacti are super hardy indoor houseplants that survive in most conditions. If you care for a cactus well, it can thrive indoors for many decades. Some species of outdoor cacti can live between 20 and 200 years. To help cacti live long, the plants need thorough watering as often as the soil becomes dry.
+Cacti—like most succulents—are slow-growing plants, especially when growing in pots indoors. Over the first two or three years, cactus plants only grow a few centimeters. When growing in optimal conditions and if they get enough water, the plants usually grow between 0.5” and 1” (1 – 3 cm) a year. Due to their slow growth rate, cacti don’t need much feeding.
+In this article, you will find a complete guide to caring for a cactus indoors. First of all, let’s find out more about indoor succulents.
+how often do you water a cactus
+Water your cactus when the soil is completely dry rather than watering it on a set schedule
+how much to water cactus
+Soak your cactus with water when the plant soil is dry. Allow the water to drain and do not let the cactus sit in a dish of water
+To water cactus from the bottom, wait until the soil is completely dry. Place in a saucer and pour about 0.5” (1 cm) of water into the dish. Wait until the cactus “drinks” the liquid. Add some more water. Repeat the process until the succulent stops absorbing. Remove from the saucer and place it on a dry drip tray.
+How to Take Care of a Cactus
+What else do you have to do to help a cactus thrive at home? Apart from watering your plant properly, you need to know about its light requirements, type of potting mix, and how to feed it.
+Cactus Light Requirements
+To care properly for your indoor cactus, make sure it gets plenty of bright light
+Most cacti need plenty of bright light—in fact, 12 hours of sunshine daily is ideal. An ideal location for any kind of desert cactus is a south-facing windowsill. Some types of cacti can grow well in lower light conditions. So, if you can’t get enough sunlight, choose an appropriate species of cacti.
+Best Potting Soil for Cacti
+Good soil drainage is extremely important for your indoor cactus to grow well
+Cactus plants grow well in light, aerated soil that has good drainage. The best cactus soil mix will hold just enough moisture to nourish the plant—but not too much that it suffers. Ideally, you need a type of potting soil mix that dries out quickly after watering.
+Cactus Care: The Right Humidity for Cactus
+Most cacti thrive in low humidity levels
+Cactus plants love dry environments where there is low humidity. Because household air tends to be drier than outdoors, growing cactus plants indoors is super easy. Cacti need humidity levels around 20 or 30 percent to thrive. So, you should never mist cactus stems. Just water them regularly to keep moisture levels just right.</t>
+  </si>
+  <si>
+    <t>Soil Requirements for Alocasia Plant Care
+Well-aerated, organic, loose soil that contains a suitable amount of peat moss works best for Alocasia plant care. For soil that seems heavy, adding a builder’s sand or perlite will do the trick. An ideal potting mix is house plant soil, peat moss, and perlite, all in equal parts. This should let the soil hold just enough moisture while promoting excellent drainage. Inorganic matter such as pumice or crushed gravel can substitute for perlite to help the soil drain better.
+Light Conditions for Alocasia Plant Care
+Light conditions for Alocasia plant care are rather specific. They need very bright sunlight for around six to eight hours a day but no direct sun exposure. Similarly, Alocasias won’t survive dark or gloomy spots. Thus, finding the right balance is crucial. For instance, some variants, like the Alocasia Amazonica, may struggle with prolonged sunlight exposure. On the other hand, the Alocasia Zebrina and Macrorrhiza variants may prefer morning or late afternoon sun.
+Alocasia Plant Care Water Needs
+Just like lighting, watering Alocasia plant care requires finding a balance. As mentioned earlier, the soil needs to be moist but not soggy. Watering methods often involve soaking the soil and letting it dry, but this doesn’t work for the Alocasia. Instead, Alocasias need little water but at frequent intervals.
+Fertilizer Requirements for Alocasia Plant Care
+From spring until late summer or roughly March through September, fertilize your Alocasia every two weeks. Basic house plant food diluted to half its recommended strength should do well for Alocasia plant care. A slow-release plant fertilizer, diluted complete liquid fertilizer, or fish/seaweed emulsion are also suitable alternatives.
+Humidity Needs for Alocasia Plants
+High humidity is important for your Alocasia plant to thrive and survive. In fact, they require 50% to 60% humidity levels to flourish indoors. However, household air might be too dry, so use a room humidifier to regulate humidity. Placing the Alocasia’s pot on a pebble tray half-filled with water can also work wonders. Make sure the plant is sitting on the pebbles and not on the water. Avoid misting your Alocasia’s leaves as this can result in fungal infections. If you want to mist the plant, do this in the morning so its leaves can dry within the day.
+Temperature Requirements for Alocasia Plant Care
+Alocasia plants flourish best in warm temperatures between 60°F to 80°F (15.6°C to 26.7°C). During the summer months, an Alocasia can grow a new leaf every week. It’s also possible that new leaves will grow twice the size of previous leaves. However, temperature fluctuations can cause leaf damage, so keep this plant away from drafty windows, heating vents, or exterior doors.
+Propagation of Alocasia Plants
+Plant division is the best way to propagate Alocasias. For best results, do this during spring. All you need to do is cut its tuberous rhizome roots into sections and plant them in another pot. Similarly, you can cut the small “baby” plants growing near its base and plant them in another pot. Don’t forget to gently remove the offsets and carefully unwind the roots if they’re tangled up. Avoid fertilizing the newly propagated plants for at least three months.
+Additionally, don’t be alarmed if growth seems slow after propagation. With the right conditions, your Alocasias should start growing normally again in a few weeks.</t>
   </si>
 </sst>
 </file>
@@ -853,7 +515,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1144,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,12 +821,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1172,7 +834,7 @@
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1180,7 +842,7 @@
     </row>
     <row r="4" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1188,7 +850,7 @@
     </row>
     <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1196,7 +858,7 @@
     </row>
     <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1204,7 +866,7 @@
     </row>
     <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1212,7 +874,7 @@
     </row>
     <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -1220,74 +882,74 @@
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
